--- a/public/assets/template/dosen.xlsx
+++ b/public/assets/template/dosen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sisfo-akbid\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3A70AE-2D50-411D-A0B9-104898EFB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BFDB92-C0FF-4F87-85BE-FE54B8BC77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{104D5F79-215B-4C47-9144-95CD53FF269F}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{104D5F79-215B-4C47-9144-95CD53FF269F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Program Studi</t>
   </si>
 </sst>
 </file>
@@ -78,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -112,14 +115,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED045B7B-BF0E-4DB7-A48A-B85B3FB92130}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,10 +483,11 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,20 +506,23 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -491,8 +533,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -503,8 +546,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -515,8 +559,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -527,8 +572,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -539,8 +585,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -551,8 +598,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -563,8 +611,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -575,8 +624,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -587,8 +637,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -599,8 +650,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -611,8 +663,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -623,30 +676,33 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
